--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,105 +40,102 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>infected</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>shit</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -166,171 +163,180 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>god</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>easter</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -341,12 +347,6 @@
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,7 +715,7 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,13 +797,13 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
@@ -897,13 +897,13 @@
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.815068493150685</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7941176470588235</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,13 +1047,13 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1073,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7692307692307693</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
@@ -1150,10 +1150,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7666666666666667</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8198433420365535</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7586206896551724</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8113207547169812</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L13">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="M13">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7297297297297297</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8048780487804879</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8028169014084507</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K17">
-        <v>0.796875</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,37 +1523,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>18</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7878787878787878</v>
+        <v>0.7734375</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7875</v>
+        <v>0.76875</v>
       </c>
       <c r="L19">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M19">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5932203389830508</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7857142857142857</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5767195767195767</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,37 +1723,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>14</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5302013422818792</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
         <v>36</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5294117647058824</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5271317829457365</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C25">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5161290322580645</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5161290322580645</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K27">
-        <v>0.6857142857142857</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4266666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K28">
-        <v>0.675</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4181818181818182</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K29">
-        <v>0.638235294117647</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L29">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -2141,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6363636363636364</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2173,7 +2173,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3846153846153846</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -2191,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6279069767441861</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,13 +2223,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3783783783783784</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2273,13 +2273,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3611111111111111</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2347,13 +2347,13 @@
         <v>82</v>
       </c>
       <c r="K34">
-        <v>0.6067796610169491</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L34">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="M34">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2373,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3214285714285715</v>
+        <v>0.3</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2391,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K35">
-        <v>0.606694560669456</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2423,13 +2423,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2888888888888889</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2441,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2473,13 +2473,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2491,31 +2491,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2523,13 +2523,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2337662337662338</v>
+        <v>0.2125</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2541,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5692307692307692</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2573,13 +2573,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2623,13 +2623,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1849865951742627</v>
+        <v>0.1</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5638297872340425</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2673,37 +2673,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07333333333333333</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>278</v>
+        <v>1140</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K41">
-        <v>0.5617977528089888</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2723,37 +2723,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01725625539257981</v>
+        <v>0.01514663229133097</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E42">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F42">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1139</v>
+        <v>3056</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K42">
-        <v>0.5571428571428572</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2773,37 +2773,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0145114479200258</v>
+        <v>0.0107728337236534</v>
       </c>
       <c r="C43">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="F43">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3056</v>
+        <v>2112</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K43">
-        <v>0.5357142857142857</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2823,37 +2823,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01124121779859485</v>
+        <v>0.004099653106275623</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E44">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="F44">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2111</v>
+        <v>3158</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K44">
-        <v>0.5185185185185185</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2873,13 +2873,13 @@
         <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5185185185185185</v>
+        <v>0.54</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2899,13 +2899,13 @@
         <v>94</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2925,13 +2925,13 @@
         <v>95</v>
       </c>
       <c r="K47">
-        <v>0.4761904761904762</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2951,13 +2951,13 @@
         <v>96</v>
       </c>
       <c r="K48">
-        <v>0.4313725490196079</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2977,13 +2977,13 @@
         <v>97</v>
       </c>
       <c r="K49">
-        <v>0.4222222222222222</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -3003,7 +3003,7 @@
         <v>98</v>
       </c>
       <c r="K50">
-        <v>0.4117647058823529</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L50">
         <v>14</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -3029,25 +3029,25 @@
         <v>99</v>
       </c>
       <c r="K51">
-        <v>0.3835616438356164</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L51">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>28</v>
-      </c>
-      <c r="M51">
-        <v>28</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -3055,13 +3055,13 @@
         <v>100</v>
       </c>
       <c r="K52">
-        <v>0.3205128205128205</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3081,13 +3081,13 @@
         <v>101</v>
       </c>
       <c r="K53">
-        <v>0.2950819672131147</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3107,13 +3107,13 @@
         <v>102</v>
       </c>
       <c r="K54">
-        <v>0.288135593220339</v>
+        <v>0.375</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3133,13 +3133,13 @@
         <v>103</v>
       </c>
       <c r="K55">
-        <v>0.25</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3159,13 +3159,13 @@
         <v>104</v>
       </c>
       <c r="K56">
-        <v>0.2456140350877193</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3185,25 +3185,25 @@
         <v>105</v>
       </c>
       <c r="K57">
-        <v>0.1388888888888889</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3211,13 +3211,13 @@
         <v>106</v>
       </c>
       <c r="K58">
-        <v>0.1209677419354839</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3237,25 +3237,25 @@
         <v>107</v>
       </c>
       <c r="K59">
-        <v>0.0918918918918919</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59">
         <v>17</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>168</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3263,13 +3263,13 @@
         <v>108</v>
       </c>
       <c r="K60">
-        <v>0.03125</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>403</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3289,7 +3289,7 @@
         <v>109</v>
       </c>
       <c r="K61">
-        <v>0.01664816870144284</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L61">
         <v>15</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>886</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3315,25 +3315,51 @@
         <v>110</v>
       </c>
       <c r="K62">
-        <v>0.01033187226048842</v>
+        <v>0.0360576923076923</v>
       </c>
       <c r="L62">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N62">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>3161</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63">
+        <v>0.009410288582183186</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>43</v>
+      </c>
+      <c r="N63">
+        <v>0.7</v>
+      </c>
+      <c r="O63">
+        <v>0.3</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
